--- a/ExperimentList/combinations.xlsx
+++ b/ExperimentList/combinations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukaspertl/Library/Mobile Documents/com~apple~CloudDocs/Cambridge part III/Project/CompleteCodeGit/ExperimentList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37133079-5AEC-DC41-9126-45CBA0FCDF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7874E889-2192-6741-AE80-EA655BC1E862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="36">
   <si>
     <t>Loss</t>
   </si>
@@ -127,46 +127,7 @@
     <t>Done</t>
   </si>
   <si>
-    <t>4, 4, 2</t>
-  </si>
-  <si>
-    <t>6, 6, 4</t>
-  </si>
-  <si>
-    <t>8, 8, 6</t>
-  </si>
-  <si>
-    <t>10, 10, 8</t>
-  </si>
-  <si>
-    <t>12, 12, 10</t>
-  </si>
-  <si>
-    <t>13, 13, 11</t>
-  </si>
-  <si>
-    <t>11, 11, 9</t>
-  </si>
-  <si>
-    <t>9, 9, 7</t>
-  </si>
-  <si>
-    <t>7, 7, 5</t>
-  </si>
-  <si>
-    <t>5, 5, 3</t>
-  </si>
-  <si>
-    <t>14, 14, 12</t>
-  </si>
-  <si>
-    <t>15, 15, 13</t>
-  </si>
-  <si>
-    <t>16, 16, 14</t>
-  </si>
-  <si>
-    <t>20, 20, 18</t>
+    <t>6, 6, 2</t>
   </si>
 </sst>
 </file>
@@ -578,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M211"/>
+  <dimension ref="A1:M206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="J206" sqref="J206"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="H205" sqref="H205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5257,6 +5218,16 @@
         <v>195</v>
       </c>
     </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J196">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J197">
+        <v>197</v>
+      </c>
+    </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>6</v>
@@ -5268,7 +5239,7 @@
         <v>7</v>
       </c>
       <c r="D198" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E198" t="s">
         <v>23</v>
@@ -5276,6 +5247,12 @@
       <c r="F198" t="s">
         <v>35</v>
       </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>198</v>
+      </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
@@ -5288,13 +5265,19 @@
         <v>7</v>
       </c>
       <c r="D199" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E199" t="s">
         <v>23</v>
       </c>
       <c r="F199" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="G199">
+        <v>2</v>
+      </c>
+      <c r="J199">
+        <v>199</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
@@ -5308,13 +5291,19 @@
         <v>7</v>
       </c>
       <c r="D200" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E200" t="s">
         <v>23</v>
       </c>
       <c r="F200" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="G200">
+        <v>3</v>
+      </c>
+      <c r="J200">
+        <v>200</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
@@ -5328,13 +5317,19 @@
         <v>7</v>
       </c>
       <c r="D201" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E201" t="s">
         <v>23</v>
       </c>
       <c r="F201" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="G201">
+        <v>4</v>
+      </c>
+      <c r="J201">
+        <v>201</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
@@ -5348,13 +5343,19 @@
         <v>7</v>
       </c>
       <c r="D202" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E202" t="s">
         <v>23</v>
       </c>
       <c r="F202" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="G202">
+        <v>5</v>
+      </c>
+      <c r="J202">
+        <v>202</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
@@ -5368,13 +5369,19 @@
         <v>7</v>
       </c>
       <c r="D203" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E203" t="s">
         <v>23</v>
       </c>
       <c r="F203" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="G203">
+        <v>6</v>
+      </c>
+      <c r="J203">
+        <v>203</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
@@ -5388,13 +5395,19 @@
         <v>7</v>
       </c>
       <c r="D204" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E204" t="s">
         <v>23</v>
       </c>
       <c r="F204" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="G204">
+        <v>25</v>
+      </c>
+      <c r="J204">
+        <v>204</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
@@ -5408,133 +5421,21 @@
         <v>7</v>
       </c>
       <c r="D205" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E205" t="s">
         <v>23</v>
       </c>
       <c r="F205" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="J205">
+        <v>205</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>6</v>
-      </c>
-      <c r="B206">
-        <v>2</v>
-      </c>
-      <c r="C206" t="s">
-        <v>7</v>
-      </c>
-      <c r="D206" t="s">
-        <v>8</v>
-      </c>
-      <c r="E206" t="s">
-        <v>23</v>
-      </c>
-      <c r="F206" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>6</v>
-      </c>
-      <c r="B207">
-        <v>2</v>
-      </c>
-      <c r="C207" t="s">
-        <v>7</v>
-      </c>
-      <c r="D207" t="s">
-        <v>8</v>
-      </c>
-      <c r="E207" t="s">
-        <v>23</v>
-      </c>
-      <c r="F207" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>6</v>
-      </c>
-      <c r="B208">
-        <v>2</v>
-      </c>
-      <c r="C208" t="s">
-        <v>7</v>
-      </c>
-      <c r="D208" t="s">
-        <v>8</v>
-      </c>
-      <c r="E208" t="s">
-        <v>23</v>
-      </c>
-      <c r="F208" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>6</v>
-      </c>
-      <c r="B209">
-        <v>2</v>
-      </c>
-      <c r="C209" t="s">
-        <v>7</v>
-      </c>
-      <c r="D209" t="s">
-        <v>8</v>
-      </c>
-      <c r="E209" t="s">
-        <v>23</v>
-      </c>
-      <c r="F209" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>6</v>
-      </c>
-      <c r="B210">
-        <v>2</v>
-      </c>
-      <c r="C210" t="s">
-        <v>7</v>
-      </c>
-      <c r="D210" t="s">
-        <v>8</v>
-      </c>
-      <c r="E210" t="s">
-        <v>23</v>
-      </c>
-      <c r="F210" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>6</v>
-      </c>
-      <c r="B211">
-        <v>2</v>
-      </c>
-      <c r="C211" t="s">
-        <v>7</v>
-      </c>
-      <c r="D211" t="s">
-        <v>8</v>
-      </c>
-      <c r="E211" t="s">
-        <v>23</v>
-      </c>
-      <c r="F211" t="s">
-        <v>48</v>
+      <c r="J206">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentList/combinations.xlsx
+++ b/ExperimentList/combinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukaspertl/Library/Mobile Documents/com~apple~CloudDocs/Cambridge part III/Project/CompleteCodeGit/ExperimentList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7874E889-2192-6741-AE80-EA655BC1E862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAD3806-EFB1-2748-9DB1-D2829244F4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,7 +127,7 @@
     <t>Done</t>
   </si>
   <si>
-    <t>6, 6, 2</t>
+    <t>3, 3, 3</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <dimension ref="A1:M206"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="H205" sqref="H205"/>
+      <selection activeCell="N199" sqref="N199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/ExperimentList/combinations.xlsx
+++ b/ExperimentList/combinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukaspertl/Library/Mobile Documents/com~apple~CloudDocs/Cambridge part III/Project/CompleteCodeGit/ExperimentList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAD3806-EFB1-2748-9DB1-D2829244F4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3339C14-1EAC-6445-9597-2E146AB13DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="35">
   <si>
     <t>Loss</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>3, 3, 3</t>
   </si>
 </sst>
 </file>
@@ -541,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="N199" sqref="N199"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="J203" sqref="J203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5236,7 +5233,7 @@
         <v>2</v>
       </c>
       <c r="C198" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D198" t="s">
         <v>21</v>
@@ -5245,7 +5242,7 @@
         <v>23</v>
       </c>
       <c r="F198" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -5262,7 +5259,7 @@
         <v>2</v>
       </c>
       <c r="C199" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D199" t="s">
         <v>21</v>
@@ -5271,7 +5268,7 @@
         <v>23</v>
       </c>
       <c r="F199" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G199">
         <v>2</v>
@@ -5288,7 +5285,7 @@
         <v>2</v>
       </c>
       <c r="C200" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D200" t="s">
         <v>21</v>
@@ -5297,7 +5294,7 @@
         <v>23</v>
       </c>
       <c r="F200" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G200">
         <v>3</v>
@@ -5314,7 +5311,7 @@
         <v>2</v>
       </c>
       <c r="C201" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D201" t="s">
         <v>21</v>
@@ -5323,7 +5320,7 @@
         <v>23</v>
       </c>
       <c r="F201" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G201">
         <v>4</v>
@@ -5340,7 +5337,7 @@
         <v>2</v>
       </c>
       <c r="C202" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D202" t="s">
         <v>21</v>
@@ -5349,7 +5346,7 @@
         <v>23</v>
       </c>
       <c r="F202" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G202">
         <v>5</v>
@@ -5366,7 +5363,7 @@
         <v>2</v>
       </c>
       <c r="C203" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D203" t="s">
         <v>21</v>
@@ -5375,7 +5372,7 @@
         <v>23</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G203">
         <v>6</v>
@@ -5392,7 +5389,7 @@
         <v>2</v>
       </c>
       <c r="C204" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D204" t="s">
         <v>21</v>
@@ -5401,7 +5398,7 @@
         <v>23</v>
       </c>
       <c r="F204" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G204">
         <v>25</v>
@@ -5418,7 +5415,7 @@
         <v>2</v>
       </c>
       <c r="C205" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D205" t="s">
         <v>13</v>
@@ -5427,7 +5424,7 @@
         <v>23</v>
       </c>
       <c r="F205" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J205">
         <v>205</v>

--- a/ExperimentList/combinations.xlsx
+++ b/ExperimentList/combinations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukaspertl/Library/Mobile Documents/com~apple~CloudDocs/Cambridge part III/Project/CompleteCodeGit/ExperimentList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3339C14-1EAC-6445-9597-2E146AB13DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51643DD-E874-0D42-9B22-0FE409B1FE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-40" yWindow="760" windowWidth="29400" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="37">
   <si>
     <t>Loss</t>
   </si>
@@ -126,6 +126,12 @@
   <si>
     <t>Done</t>
   </si>
+  <si>
+    <t>LocalPower</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
 </sst>
 </file>
 
@@ -222,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -232,6 +238,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -539,7 +548,7 @@
   <dimension ref="A1:M206"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="J203" sqref="J203"/>
+      <selection activeCell="H198" sqref="H198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -569,6 +578,9 @@
       <c r="G1" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="H1" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="J1">
         <v>1</v>
       </c>
@@ -5233,7 +5245,7 @@
         <v>2</v>
       </c>
       <c r="C198" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D198" t="s">
         <v>21</v>
@@ -5246,6 +5258,9 @@
       </c>
       <c r="G198">
         <v>1</v>
+      </c>
+      <c r="H198">
+        <v>6</v>
       </c>
       <c r="J198">
         <v>198</v>

--- a/ExperimentList/combinations.xlsx
+++ b/ExperimentList/combinations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukaspertl/Library/Mobile Documents/com~apple~CloudDocs/Cambridge part III/Project/CompleteCodeGit/ExperimentList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51643DD-E874-0D42-9B22-0FE409B1FE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5462D57-B992-0B4F-98D3-40EC67FD54B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="760" windowWidth="29400" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="38">
   <si>
     <t>Loss</t>
   </si>
@@ -130,7 +130,10 @@
     <t>LocalPower</t>
   </si>
   <si>
-    <t>SPM</t>
+    <t>12, 12, 6</t>
+  </si>
+  <si>
+    <t>12, 12, 18</t>
   </si>
 </sst>
 </file>
@@ -545,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M206"/>
+  <dimension ref="A1:M230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="H198" sqref="H198"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="M229" sqref="M229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5238,82 +5241,16 @@
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>6</v>
-      </c>
-      <c r="B198">
-        <v>2</v>
-      </c>
-      <c r="C198" t="s">
-        <v>36</v>
-      </c>
-      <c r="D198" t="s">
-        <v>21</v>
-      </c>
-      <c r="E198" t="s">
-        <v>23</v>
-      </c>
-      <c r="F198" t="s">
-        <v>26</v>
-      </c>
-      <c r="G198">
-        <v>1</v>
-      </c>
-      <c r="H198">
-        <v>6</v>
-      </c>
       <c r="J198">
         <v>198</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>6</v>
-      </c>
-      <c r="B199">
-        <v>2</v>
-      </c>
-      <c r="C199" t="s">
-        <v>14</v>
-      </c>
-      <c r="D199" t="s">
-        <v>21</v>
-      </c>
-      <c r="E199" t="s">
-        <v>23</v>
-      </c>
-      <c r="F199" t="s">
-        <v>26</v>
-      </c>
-      <c r="G199">
-        <v>2</v>
-      </c>
       <c r="J199">
         <v>199</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>6</v>
-      </c>
-      <c r="B200">
-        <v>2</v>
-      </c>
-      <c r="C200" t="s">
-        <v>14</v>
-      </c>
-      <c r="D200" t="s">
-        <v>21</v>
-      </c>
-      <c r="E200" t="s">
-        <v>23</v>
-      </c>
-      <c r="F200" t="s">
-        <v>26</v>
-      </c>
-      <c r="G200">
-        <v>3</v>
-      </c>
       <c r="J200">
         <v>200</v>
       </c>
@@ -5335,13 +5272,10 @@
         <v>23</v>
       </c>
       <c r="F201" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G201">
-        <v>4</v>
-      </c>
-      <c r="J201">
-        <v>201</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
@@ -5361,13 +5295,10 @@
         <v>23</v>
       </c>
       <c r="F202" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G202">
-        <v>5</v>
-      </c>
-      <c r="J202">
-        <v>202</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
@@ -5387,13 +5318,10 @@
         <v>23</v>
       </c>
       <c r="F203" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G203">
-        <v>6</v>
-      </c>
-      <c r="J203">
-        <v>203</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
@@ -5413,13 +5341,10 @@
         <v>23</v>
       </c>
       <c r="F204" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G204">
-        <v>25</v>
-      </c>
-      <c r="J204">
-        <v>204</v>
+        <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
@@ -5439,15 +5364,576 @@
         <v>23</v>
       </c>
       <c r="F205" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>6</v>
+      </c>
+      <c r="B206">
+        <v>2</v>
+      </c>
+      <c r="C206" t="s">
+        <v>14</v>
+      </c>
+      <c r="D206" t="s">
+        <v>21</v>
+      </c>
+      <c r="E206" t="s">
+        <v>23</v>
+      </c>
+      <c r="F206" t="s">
         <v>26</v>
       </c>
-      <c r="J205">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J206">
-        <v>206</v>
+      <c r="G206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>6</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+      <c r="C207" t="s">
+        <v>14</v>
+      </c>
+      <c r="D207" t="s">
+        <v>21</v>
+      </c>
+      <c r="E207" t="s">
+        <v>23</v>
+      </c>
+      <c r="F207" t="s">
+        <v>26</v>
+      </c>
+      <c r="G207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>6</v>
+      </c>
+      <c r="B208">
+        <v>2</v>
+      </c>
+      <c r="C208" t="s">
+        <v>14</v>
+      </c>
+      <c r="D208" t="s">
+        <v>21</v>
+      </c>
+      <c r="E208" t="s">
+        <v>23</v>
+      </c>
+      <c r="F208" t="s">
+        <v>26</v>
+      </c>
+      <c r="G208">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>6</v>
+      </c>
+      <c r="B209">
+        <v>2</v>
+      </c>
+      <c r="C209" t="s">
+        <v>14</v>
+      </c>
+      <c r="D209" t="s">
+        <v>21</v>
+      </c>
+      <c r="E209" t="s">
+        <v>23</v>
+      </c>
+      <c r="F209" t="s">
+        <v>26</v>
+      </c>
+      <c r="G209">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>6</v>
+      </c>
+      <c r="B210">
+        <v>2</v>
+      </c>
+      <c r="C210" t="s">
+        <v>14</v>
+      </c>
+      <c r="D210" t="s">
+        <v>13</v>
+      </c>
+      <c r="E210" t="s">
+        <v>23</v>
+      </c>
+      <c r="F210" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>6</v>
+      </c>
+      <c r="B211">
+        <v>2</v>
+      </c>
+      <c r="C211" t="s">
+        <v>14</v>
+      </c>
+      <c r="D211" t="s">
+        <v>21</v>
+      </c>
+      <c r="E211" t="s">
+        <v>23</v>
+      </c>
+      <c r="F211" t="s">
+        <v>37</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>6</v>
+      </c>
+      <c r="B212">
+        <v>2</v>
+      </c>
+      <c r="C212" t="s">
+        <v>14</v>
+      </c>
+      <c r="D212" t="s">
+        <v>21</v>
+      </c>
+      <c r="E212" t="s">
+        <v>23</v>
+      </c>
+      <c r="F212" t="s">
+        <v>37</v>
+      </c>
+      <c r="G212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>6</v>
+      </c>
+      <c r="B213">
+        <v>2</v>
+      </c>
+      <c r="C213" t="s">
+        <v>14</v>
+      </c>
+      <c r="D213" t="s">
+        <v>21</v>
+      </c>
+      <c r="E213" t="s">
+        <v>23</v>
+      </c>
+      <c r="F213" t="s">
+        <v>37</v>
+      </c>
+      <c r="G213">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>6</v>
+      </c>
+      <c r="B214">
+        <v>2</v>
+      </c>
+      <c r="C214" t="s">
+        <v>14</v>
+      </c>
+      <c r="D214" t="s">
+        <v>21</v>
+      </c>
+      <c r="E214" t="s">
+        <v>23</v>
+      </c>
+      <c r="F214" t="s">
+        <v>37</v>
+      </c>
+      <c r="G214">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>6</v>
+      </c>
+      <c r="B215">
+        <v>2</v>
+      </c>
+      <c r="C215" t="s">
+        <v>14</v>
+      </c>
+      <c r="D215" t="s">
+        <v>13</v>
+      </c>
+      <c r="E215" t="s">
+        <v>23</v>
+      </c>
+      <c r="F215" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>6</v>
+      </c>
+      <c r="B216">
+        <v>2</v>
+      </c>
+      <c r="C216" t="s">
+        <v>14</v>
+      </c>
+      <c r="D216" t="s">
+        <v>8</v>
+      </c>
+      <c r="E216" t="s">
+        <v>23</v>
+      </c>
+      <c r="F216" t="s">
+        <v>36</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>6</v>
+      </c>
+      <c r="B217">
+        <v>2</v>
+      </c>
+      <c r="C217" t="s">
+        <v>14</v>
+      </c>
+      <c r="D217" t="s">
+        <v>8</v>
+      </c>
+      <c r="E217" t="s">
+        <v>23</v>
+      </c>
+      <c r="F217" t="s">
+        <v>36</v>
+      </c>
+      <c r="H217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>6</v>
+      </c>
+      <c r="B218">
+        <v>2</v>
+      </c>
+      <c r="C218" t="s">
+        <v>14</v>
+      </c>
+      <c r="D218" t="s">
+        <v>8</v>
+      </c>
+      <c r="E218" t="s">
+        <v>23</v>
+      </c>
+      <c r="F218" t="s">
+        <v>36</v>
+      </c>
+      <c r="H218">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>6</v>
+      </c>
+      <c r="B219">
+        <v>2</v>
+      </c>
+      <c r="C219" t="s">
+        <v>14</v>
+      </c>
+      <c r="D219" t="s">
+        <v>8</v>
+      </c>
+      <c r="E219" t="s">
+        <v>23</v>
+      </c>
+      <c r="F219" t="s">
+        <v>36</v>
+      </c>
+      <c r="H219">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>6</v>
+      </c>
+      <c r="B220">
+        <v>2</v>
+      </c>
+      <c r="C220" t="s">
+        <v>14</v>
+      </c>
+      <c r="D220" t="s">
+        <v>8</v>
+      </c>
+      <c r="E220" t="s">
+        <v>23</v>
+      </c>
+      <c r="F220" t="s">
+        <v>36</v>
+      </c>
+      <c r="H220">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221">
+        <v>2</v>
+      </c>
+      <c r="C221" t="s">
+        <v>14</v>
+      </c>
+      <c r="D221" t="s">
+        <v>8</v>
+      </c>
+      <c r="E221" t="s">
+        <v>23</v>
+      </c>
+      <c r="F221" t="s">
+        <v>26</v>
+      </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222">
+        <v>2</v>
+      </c>
+      <c r="C222" t="s">
+        <v>14</v>
+      </c>
+      <c r="D222" t="s">
+        <v>8</v>
+      </c>
+      <c r="E222" t="s">
+        <v>23</v>
+      </c>
+      <c r="F222" t="s">
+        <v>26</v>
+      </c>
+      <c r="H222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>6</v>
+      </c>
+      <c r="B223">
+        <v>2</v>
+      </c>
+      <c r="C223" t="s">
+        <v>14</v>
+      </c>
+      <c r="D223" t="s">
+        <v>8</v>
+      </c>
+      <c r="E223" t="s">
+        <v>23</v>
+      </c>
+      <c r="F223" t="s">
+        <v>26</v>
+      </c>
+      <c r="H223">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>6</v>
+      </c>
+      <c r="B224">
+        <v>2</v>
+      </c>
+      <c r="C224" t="s">
+        <v>14</v>
+      </c>
+      <c r="D224" t="s">
+        <v>8</v>
+      </c>
+      <c r="E224" t="s">
+        <v>23</v>
+      </c>
+      <c r="F224" t="s">
+        <v>26</v>
+      </c>
+      <c r="H224">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>6</v>
+      </c>
+      <c r="B225">
+        <v>2</v>
+      </c>
+      <c r="C225" t="s">
+        <v>14</v>
+      </c>
+      <c r="D225" t="s">
+        <v>8</v>
+      </c>
+      <c r="E225" t="s">
+        <v>23</v>
+      </c>
+      <c r="F225" t="s">
+        <v>26</v>
+      </c>
+      <c r="H225">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>6</v>
+      </c>
+      <c r="B226">
+        <v>2</v>
+      </c>
+      <c r="C226" t="s">
+        <v>14</v>
+      </c>
+      <c r="D226" t="s">
+        <v>8</v>
+      </c>
+      <c r="E226" t="s">
+        <v>23</v>
+      </c>
+      <c r="F226" t="s">
+        <v>37</v>
+      </c>
+      <c r="H226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>6</v>
+      </c>
+      <c r="B227">
+        <v>2</v>
+      </c>
+      <c r="C227" t="s">
+        <v>14</v>
+      </c>
+      <c r="D227" t="s">
+        <v>8</v>
+      </c>
+      <c r="E227" t="s">
+        <v>23</v>
+      </c>
+      <c r="F227" t="s">
+        <v>37</v>
+      </c>
+      <c r="H227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>6</v>
+      </c>
+      <c r="B228">
+        <v>2</v>
+      </c>
+      <c r="C228" t="s">
+        <v>14</v>
+      </c>
+      <c r="D228" t="s">
+        <v>8</v>
+      </c>
+      <c r="E228" t="s">
+        <v>23</v>
+      </c>
+      <c r="F228" t="s">
+        <v>37</v>
+      </c>
+      <c r="H228">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>6</v>
+      </c>
+      <c r="B229">
+        <v>2</v>
+      </c>
+      <c r="C229" t="s">
+        <v>14</v>
+      </c>
+      <c r="D229" t="s">
+        <v>8</v>
+      </c>
+      <c r="E229" t="s">
+        <v>23</v>
+      </c>
+      <c r="F229" t="s">
+        <v>37</v>
+      </c>
+      <c r="H229">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>6</v>
+      </c>
+      <c r="B230">
+        <v>2</v>
+      </c>
+      <c r="C230" t="s">
+        <v>14</v>
+      </c>
+      <c r="D230" t="s">
+        <v>8</v>
+      </c>
+      <c r="E230" t="s">
+        <v>23</v>
+      </c>
+      <c r="F230" t="s">
+        <v>37</v>
+      </c>
+      <c r="H230">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentList/combinations.xlsx
+++ b/ExperimentList/combinations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukaspertl/Library/Mobile Documents/com~apple~CloudDocs/Cambridge part III/Project/CompleteCodeGit/ExperimentList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5462D57-B992-0B4F-98D3-40EC67FD54B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A610F3E4-5C6D-D44C-9441-A6902A57D62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="40">
   <si>
     <t>Loss</t>
   </si>
@@ -130,10 +130,16 @@
     <t>LocalPower</t>
   </si>
   <si>
+    <t>SPM</t>
+  </si>
+  <si>
     <t>12, 12, 6</t>
   </si>
   <si>
     <t>12, 12, 18</t>
+  </si>
+  <si>
+    <t>24, 24, 6</t>
   </si>
 </sst>
 </file>
@@ -548,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M230"/>
+  <dimension ref="A1:M235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="M229" sqref="M229"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="J230" sqref="J230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5272,7 +5278,7 @@
         <v>23</v>
       </c>
       <c r="F201" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -5295,7 +5301,7 @@
         <v>23</v>
       </c>
       <c r="F202" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G202">
         <v>2</v>
@@ -5318,7 +5324,7 @@
         <v>23</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G203">
         <v>4</v>
@@ -5341,7 +5347,7 @@
         <v>23</v>
       </c>
       <c r="F204" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G204">
         <v>8</v>
@@ -5364,7 +5370,7 @@
         <v>23</v>
       </c>
       <c r="F205" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
@@ -5496,7 +5502,7 @@
         <v>23</v>
       </c>
       <c r="F211" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -5519,7 +5525,7 @@
         <v>23</v>
       </c>
       <c r="F212" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G212">
         <v>2</v>
@@ -5542,7 +5548,7 @@
         <v>23</v>
       </c>
       <c r="F213" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G213">
         <v>4</v>
@@ -5565,7 +5571,7 @@
         <v>23</v>
       </c>
       <c r="F214" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G214">
         <v>8</v>
@@ -5588,7 +5594,7 @@
         <v>23</v>
       </c>
       <c r="F215" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
@@ -5599,7 +5605,7 @@
         <v>2</v>
       </c>
       <c r="C216" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D216" t="s">
         <v>8</v>
@@ -5608,7 +5614,7 @@
         <v>23</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -5622,7 +5628,7 @@
         <v>2</v>
       </c>
       <c r="C217" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D217" t="s">
         <v>8</v>
@@ -5631,7 +5637,7 @@
         <v>23</v>
       </c>
       <c r="F217" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H217">
         <v>2</v>
@@ -5645,7 +5651,7 @@
         <v>2</v>
       </c>
       <c r="C218" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D218" t="s">
         <v>8</v>
@@ -5654,7 +5660,7 @@
         <v>23</v>
       </c>
       <c r="F218" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H218">
         <v>4</v>
@@ -5668,7 +5674,7 @@
         <v>2</v>
       </c>
       <c r="C219" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D219" t="s">
         <v>8</v>
@@ -5677,7 +5683,7 @@
         <v>23</v>
       </c>
       <c r="F219" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H219">
         <v>8</v>
@@ -5691,7 +5697,7 @@
         <v>2</v>
       </c>
       <c r="C220" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D220" t="s">
         <v>8</v>
@@ -5700,7 +5706,7 @@
         <v>23</v>
       </c>
       <c r="F220" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H220">
         <v>20</v>
@@ -5714,7 +5720,7 @@
         <v>2</v>
       </c>
       <c r="C221" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D221" t="s">
         <v>8</v>
@@ -5737,7 +5743,7 @@
         <v>2</v>
       </c>
       <c r="C222" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D222" t="s">
         <v>8</v>
@@ -5760,7 +5766,7 @@
         <v>2</v>
       </c>
       <c r="C223" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D223" t="s">
         <v>8</v>
@@ -5783,7 +5789,7 @@
         <v>2</v>
       </c>
       <c r="C224" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D224" t="s">
         <v>8</v>
@@ -5806,7 +5812,7 @@
         <v>2</v>
       </c>
       <c r="C225" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D225" t="s">
         <v>8</v>
@@ -5829,7 +5835,7 @@
         <v>2</v>
       </c>
       <c r="C226" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D226" t="s">
         <v>8</v>
@@ -5838,7 +5844,7 @@
         <v>23</v>
       </c>
       <c r="F226" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H226">
         <v>1</v>
@@ -5852,7 +5858,7 @@
         <v>2</v>
       </c>
       <c r="C227" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D227" t="s">
         <v>8</v>
@@ -5861,7 +5867,7 @@
         <v>23</v>
       </c>
       <c r="F227" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H227">
         <v>2</v>
@@ -5875,7 +5881,7 @@
         <v>2</v>
       </c>
       <c r="C228" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D228" t="s">
         <v>8</v>
@@ -5884,7 +5890,7 @@
         <v>23</v>
       </c>
       <c r="F228" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H228">
         <v>4</v>
@@ -5898,7 +5904,7 @@
         <v>2</v>
       </c>
       <c r="C229" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D229" t="s">
         <v>8</v>
@@ -5907,7 +5913,7 @@
         <v>23</v>
       </c>
       <c r="F229" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H229">
         <v>8</v>
@@ -5921,7 +5927,7 @@
         <v>2</v>
       </c>
       <c r="C230" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D230" t="s">
         <v>8</v>
@@ -5930,10 +5936,122 @@
         <v>23</v>
       </c>
       <c r="F230" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H230">
         <v>20</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>6</v>
+      </c>
+      <c r="B231">
+        <v>2</v>
+      </c>
+      <c r="C231" t="s">
+        <v>14</v>
+      </c>
+      <c r="D231" t="s">
+        <v>21</v>
+      </c>
+      <c r="E231" t="s">
+        <v>23</v>
+      </c>
+      <c r="F231" t="s">
+        <v>39</v>
+      </c>
+      <c r="G231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>6</v>
+      </c>
+      <c r="B232">
+        <v>2</v>
+      </c>
+      <c r="C232" t="s">
+        <v>14</v>
+      </c>
+      <c r="D232" t="s">
+        <v>21</v>
+      </c>
+      <c r="E232" t="s">
+        <v>23</v>
+      </c>
+      <c r="F232" t="s">
+        <v>39</v>
+      </c>
+      <c r="G232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>6</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+      <c r="C233" t="s">
+        <v>14</v>
+      </c>
+      <c r="D233" t="s">
+        <v>21</v>
+      </c>
+      <c r="E233" t="s">
+        <v>23</v>
+      </c>
+      <c r="F233" t="s">
+        <v>39</v>
+      </c>
+      <c r="G233">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>6</v>
+      </c>
+      <c r="B234">
+        <v>2</v>
+      </c>
+      <c r="C234" t="s">
+        <v>14</v>
+      </c>
+      <c r="D234" t="s">
+        <v>21</v>
+      </c>
+      <c r="E234" t="s">
+        <v>23</v>
+      </c>
+      <c r="F234" t="s">
+        <v>39</v>
+      </c>
+      <c r="G234">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>6</v>
+      </c>
+      <c r="B235">
+        <v>2</v>
+      </c>
+      <c r="C235" t="s">
+        <v>14</v>
+      </c>
+      <c r="D235" t="s">
+        <v>13</v>
+      </c>
+      <c r="E235" t="s">
+        <v>23</v>
+      </c>
+      <c r="F235" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
